--- a/testDat/test_aneupl_file_2.xlsx
+++ b/testDat/test_aneupl_file_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpique/Desktop/marLab/projects/aneuVis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpique/Desktop/marLab/projects/aneuVis/testDat/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,9 +49,10 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -357,13 +358,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
